--- a/api/db.xlsx
+++ b/api/db.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="5595"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20480" windowHeight="5600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statuscode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TINYINT</t>
   </si>
   <si>
@@ -162,6 +154,18 @@
   </si>
   <si>
     <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(65)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -326,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,14 +336,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,16 +655,16 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="6" width="14.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,271 +684,271 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="14"/>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -963,7 +967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,7 +980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/db.xlsx
+++ b/api/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,15 +161,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(65)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,13 +362,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,19 +675,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="14.58203125" customWidth="1"/>
     <col min="4" max="6" width="14.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -683,9 +707,12 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -703,9 +730,12 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -717,85 +747,98 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>32</v>
@@ -804,22 +847,22 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>33</v>
@@ -828,10 +871,10 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>33</v>
@@ -840,10 +883,10 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>33</v>
@@ -852,10 +895,10 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>33</v>
@@ -864,10 +907,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>33</v>
@@ -876,10 +919,10 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -888,10 +931,10 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>33</v>
@@ -900,10 +943,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>33</v>
@@ -912,10 +955,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
@@ -924,36 +967,27 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="8" t="s">
+    <row r="20" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
